--- a/drg_measurements_new/chilo/20220524_masterlist.xlsx
+++ b/drg_measurements_new/chilo/20220524_masterlist.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlaca\Documents\R\repos\PainShark\drg_measurements_new\chilo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romil\Dropbox\PC (2)\Documents\R\Repos\PainShark\drg_measurements_new\chilo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A240E7CA-670F-47C7-920E-4D75515ECB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A225DE73-0DB9-4D93-A8F2-D882F929B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="960" windowWidth="24780" windowHeight="15180" xr2:uid="{1B88F5E7-854A-41C2-9B80-4B2D71A749C4}"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="20160" windowHeight="15600" xr2:uid="{1B88F5E7-854A-41C2-9B80-4B2D71A749C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2067</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C06BB-79F0-4E5D-8AB4-A5B3E4644DAA}">
   <dimension ref="A1:H2067"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2047" workbookViewId="0">
+      <selection activeCell="L2030" sqref="L2030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52035,6 +52038,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H7542" xr:uid="{F15C06BB-79F0-4E5D-8AB4-A5B3E4644DAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>